--- a/biology/Zoologie/Coelognathus_erythrurus/Coelognathus_erythrurus.xlsx
+++ b/biology/Zoologie/Coelognathus_erythrurus/Coelognathus_erythrurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coelognathus erythrurus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coelognathus erythrurus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Indonésie, aux Célèbes et sur l'île de Buton ;
 aux Philippines ;
-en Malaisie orientale, dans l’État de Sabah (la présence de cette espèce sur l'île de Bornéo est douteuse car elle peut être confondue avec Coelognathus flavolineatus[1]).</t>
+en Malaisie orientale, dans l’État de Sabah (la présence de cette espèce sur l'île de Bornéo est douteuse car elle peut être confondue avec Coelognathus flavolineatus).</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2014) :
 Coelognathus erythrurus celebensis (Jan, 1863) - Célèbes
 Coelognathus erythrurus erythrurus (Duméril, Bibron &amp; Duméril, 1854)
 Coelognathus erythrurus manillensis Jan, 1863 - Luçon
@@ -578,9 +594,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Coelognathus erythrurus philippinus[3] a été élevée au rang d'espèce par Helfenberger en 2001[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Coelognathus erythrurus philippinus a été élevée au rang d'espèce par Helfenberger en 2001.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Première partie, p. 1-780 (texte intégral).
 Jan, 1863 : Elenco Sistematico degli Ofidi descriti e disegnati per l'Iconografia Generale. Milano, A. Lombardi, p. 1-143 (texte intégral).
